--- a/import.xlsx
+++ b/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\CarRental\CarRent\CarRent\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\1 курс\2 семестр\ПиДИС\car-rent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8E420-0AF4-4B59-8A88-5D4485C712D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A5BEBB-ADB1-495D-A935-0B74832F44D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>CarStatusId</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>\Images\1.jpg</t>
   </si>
   <si>
@@ -85,6 +82,30 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Camry</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>Solaris</t>
+  </si>
+  <si>
+    <t>Largus</t>
+  </si>
+  <si>
+    <t>Granta</t>
+  </si>
+  <si>
+    <t>\Images\11.jpeg</t>
+  </si>
+  <si>
+    <t>Rapid</t>
   </si>
 </sst>
 </file>
@@ -405,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,9 +441,10 @@
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -448,10 +470,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -464,65 +489,314 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1">
+        <v>3.5</v>
       </c>
       <c r="G2">
         <v>2021</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>7990</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
+      </c>
       <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>6990</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>2021</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+      <c r="I4">
+        <v>7990</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2015</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+      <c r="I5">
+        <v>4990</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2015</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>4990</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>2013</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+      <c r="I7">
+        <v>4990</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G8">
+        <v>2019</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+      <c r="I8">
+        <v>2990</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G9">
+        <v>2021</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
+      <c r="I9">
+        <v>2990</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G10">
+        <v>2019</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+      <c r="I10">
+        <v>1990</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G11">
+        <v>2021</v>
+      </c>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>15</v>
+      <c r="I11">
+        <v>1990</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G12">
+        <v>2017</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>2990</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>